--- a/publipostage/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,29 +493,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCT00428779</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NCT00770393</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Neuromuscular and Cognitive Fatigue During a 24h Treadmill Running Exercise.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Randomized Phase III Trial Comparing Induction Chemotherapy Followed by Radiotherapy to Concomitant Chemoradiotherapy for Laryngeal Preservation in T3MO Pyriform Sinus Carcinoma</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -521,32 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT00327106</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00428779</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Efficacy of Tranexamic Acid on Perioperative Blood Loss During Hip Fracture Surgery.</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>THIF</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+          <t>Neuromuscular and Cognitive Fatigue During a 24h Treadmill Running Exercise.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,66 +569,76 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT00770393</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT00327106</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Randomized Phase III Trial Comparing Induction Chemotherapy Followed by Radiotherapy to Concomitant Chemoradiotherapy for Laryngeal Preservation in T3MO Pyriform Sinus Carcinoma</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Efficacy of Tranexamic Acid on Perioperative Blood Loss During Hip Fracture Surgery.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>THIF</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT00555438</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT00522561</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Prospective, Multicentre, Open-label Study Evaluating 1.5 mg/Day of Fondaparinux,in Venous Thromboembolic Events Prevention in Patients With Renal Impairment and Undergoing a Major Orthopaedic Surgery. PROPICE Study</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PROPICE</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+          <t>Lower Limb Mechanical Characteristics: Effect on Running Mechanics and Energetics</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -628,28 +649,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00451776</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00542906</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Post Operative Hemodynamic Function After Anesthetic Induction With Etomidate for Cardiac Surgery With ECC. A Prospective, Monocentric, Randomised Double Blind Study</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Functional Organization of Somatosensory Responses in the Secondary Somatosensitive Area (SII) and Insula : an fMRI Study</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -661,29 +687,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT00475059</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT00452010</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Performance of Cimetidine-corrected MDRD Equation in Renal Transplant Patients</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pain Reducing Effect of Transcutaneous Electrical Nerve Stimulation (TENS) in Patients With Chronic Low Back Pain or Chronic Lumbo-radiculalgia and Followed in Pain Treatment Centers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>LOBOTENS</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,66 +729,76 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT00452010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT00475059</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Pain Reducing Effect of Transcutaneous Electrical Nerve Stimulation (TENS) in Patients With Chronic Low Back Pain or Chronic Lumbo-radiculalgia and Followed in Pain Treatment Centers</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LOBOTENS</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+          <t>Performance of Cimetidine-corrected MDRD Equation in Renal Transplant Patients</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT00542906</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT00555438</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Functional Organization of Somatosensory Responses in the Secondary Somatosensitive Area (SII) and Insula : an fMRI Study</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prospective, Multicentre, Open-label Study Evaluating 1.5 mg/Day of Fondaparinux,in Venous Thromboembolic Events Prevention in Patients With Renal Impairment and Undergoing a Major Orthopaedic Surgery. PROPICE Study</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PROPICE</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -764,28 +809,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT00522561</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT00451776</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Lower Limb Mechanical Characteristics: Effect on Running Mechanics and Energetics</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Post Operative Hemodynamic Function After Anesthetic Induction With Etomidate for Cardiac Surgery With ECC. A Prospective, Monocentric, Randomised Double Blind Study</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -797,33 +847,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT00621907</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
+          <t>2007-006275-36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Levobupivacïne Into Post-analgesia : Randomized Monocentric Study Against Placebo</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Levobupivacaine into post-caesarian analgesia: randomized monocentric study against placebo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>LEVOBU</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -832,34 +887,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2007-006275-36</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+          <t>NCT00732290</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Levobupivacaine into post-caesarian analgesia: randomized monocentric study against placebo</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LEVOBU</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Investigation of Drug-drug Interaction Between Clopidogrel and Fluoxetine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PLATINE</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -871,33 +931,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT00904527</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT00621907</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Interest of Relaxation From Patients With Pain Due to Migraine</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MIGREL</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Levobupivacïne Into Post-analgesia : Randomized Monocentric Study Against Placebo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>LEVOBU</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -908,32 +973,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT00732290</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT00904527</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Investigation of Drug-drug Interaction Between Clopidogrel and Fluoxetine</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PLATINE</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Interest of Relaxation From Patients With Pain Due to Migraine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MIGREL</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -945,28 +1015,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT00521508</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT00916526</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Role of CD4+CD25+FoxP3+ Regulatory T Cells in Pathogenesis of Primary IgA Nephropathy</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="b">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Measurement of Exhaled NO and Bronchial Provocation Test With Mannitol as a Predictor of Response to Inhaled Corticosteroids in Chronic Cough</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MANOTOUX</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -978,32 +1057,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT00916526</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT00521508</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Measurement of Exhaled NO and Bronchial Provocation Test With Mannitol as a Predictor of Response to Inhaled Corticosteroids in Chronic Cough</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MANOTOUX</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
+          <t>Role of CD4+CD25+FoxP3+ Regulatory T Cells in Pathogenesis of Primary IgA Nephropathy</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1015,28 +1095,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT00941824</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Pharmacokinetic Evaluation of an Intensified and Decreasing Dosing Regimen of Mycophenolate Sodium in Combination With Tacrolimus During the First 3 Months Post Kidney Transplant (the myFORTic Study)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1048,32 +1133,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT00515645</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT01385683</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cardiac Autonomic Functions During Head-out Immersion and During Head Down Tilt</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>IMMERSION</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Investigation Drug-drug Interaction Between Dabigatran and Clarithromycin</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>IMAGINE</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1085,32 +1175,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT01385683</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT00515645</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Investigation Drug-drug Interaction Between Dabigatran and Clarithromycin</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>IMAGINE</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Cardiac Autonomic Functions During Head-out Immersion and During Head Down Tilt</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>IMMERSION</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1122,34 +1217,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>NCT01135303</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Effectiveness of VistaO2 Device in Screening of Sleep Apnea/Hypopnea Syndrome</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>VISTAO2</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1159,28 +1259,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT02538445</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01606020</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Can we Forget? Directed Forgetting and Embodied Cognition in Schizophrenia</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="b">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Effects of Sleep Deprivation on Driving Performance and Central Fatigue</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PrivSom</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1192,70 +1301,76 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT01606020</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT02527902</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Effects of Sleep Deprivation on Driving Performance and Central Fatigue</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PrivSom</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
+          <t>Autonomic Nervous System (ANS) Analysis According to Different Renal Function Stage in Immunoglobin A (IgA) Nephropathy</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT00457158</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT01401140</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PREPIC 2 : Interruption of Inferior Vena Cava by a Retrievable Filter for the Prevention of Recurrent Pulmonary Embolism : a Randomised, Open Label Study</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PREPIC2</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Coronary Surgery: Comparing the Protective Effects of Two Cardioplegic Solutions: Custodiol Versus St Thomas, on Cardiac Metabolism, as Assessed Using Microdialysis</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cardioplégie</t>
+        </is>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1266,70 +1381,76 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT01303471</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02538445</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Pain Assessment During General Anesthesia : DOLANS (DOULeur ANeSthesie) Study</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DOLANS</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
+          <t>Can we Forget? Directed Forgetting and Embodied Cognition in Schizophrenia</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01401140</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT00457158</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Coronary Surgery: Comparing the Protective Effects of Two Cardioplegic Solutions: Custodiol Versus St Thomas, on Cardiac Metabolism, as Assessed Using Microdialysis</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cardioplégie</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>PREPIC 2 : Interruption of Inferior Vena Cava by a Retrievable Filter for the Prevention of Recurrent Pulmonary Embolism : a Randomised, Open Label Study</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PREPIC2</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1340,28 +1461,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02527902</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT01303471</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Autonomic Nervous System (ANS) Analysis According to Different Renal Function Stage in Immunoglobin A (IgA) Nephropathy</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="b">
-        <v>0</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pain Assessment During General Anesthesia : DOLANS (DOULeur ANeSthesie) Study</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DOLANS</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1373,32 +1503,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT01349270</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT02557568</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Multicentre Randomized Open-label Trial to Compare Efficacy and Tolerance of Corticosteroids and IVIg in Patients With Chronic Inflammatory Demyelinating Polyneuropathy on a One Year Follow up</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PRNC</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Evaluation of an Algorithm for Identifying Persistent Nasal Staphylococcus Aureus Carriage in a Cohort of Healthy Volunteers and Patients Regularly Monitored at the CHU of Saint-Etienne</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ScreenStaph</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1410,28 +1545,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT02046720</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT00676390</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>The Influence of Age on Bispectral Index Associated With Propofol-induced Sedation</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="b">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Estimated Physical Activity of Congestive Heart Failure Patients by a Physical Activity Questionnaire : Concordance Study.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>H2OBis</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1443,28 +1587,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02549378</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02046720</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Study of the Impact of Changes in Carbonemia on Microcirculation in Patients - A Monocentric Study</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>The Influence of Age on Bispectral Index Associated With Propofol-induced Sedation</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1476,32 +1625,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT02557568</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT02522338</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Evaluation of an Algorithm for Identifying Persistent Nasal Staphylococcus Aureus Carriage in a Cohort of Healthy Volunteers and Patients Regularly Monitored at the CHU of Saint-Etienne</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ScreenStaph</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Measurement of Glomerular Filtration Rate (GFR) in HIV Patients: Single-center Study Comparing the Accuracy of Estimators of GFR Versus Iohexol Plasma Clearance</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>HIVOL</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1513,28 +1667,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02531048</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02533518</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Normative Values Laser Nociceptive Evoked Potentials Depending on the Age</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="b">
-        <v>0</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Ultra-Violet Fluorescence Bronchial Cancer Location</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>UVFBCL</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1546,32 +1709,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT00676390</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT01349270</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Estimated Physical Activity of Congestive Heart Failure Patients by a Physical Activity Questionnaire : Concordance Study.</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>H2OBis</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Multicentre Randomized Open-label Trial to Compare Efficacy and Tolerance of Corticosteroids and IVIg in Patients With Chronic Inflammatory Demyelinating Polyneuropathy on a One Year Follow up</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>PRNC</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1583,70 +1751,76 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>NCT02551354</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Estimation of Pain During Epidural Analgesia During Labor - a Monocentric Study</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>PERIDANS</t>
         </is>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT00922857</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT02531048</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Influence of Muscular Atrophy on Biological and Functional Benefit of Respiratory Rehabilitation in Patients With Chronic Respiratory Failure</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>INSPIRE</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
+          <t>Normative Values Laser Nociceptive Evoked Potentials Depending on the Age</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1657,70 +1831,76 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT02533518</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT02549378</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Ultra-Violet Fluorescence Bronchial Cancer Location</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UVFBCL</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
+          <t>Study of the Impact of Changes in Carbonemia on Microcirculation in Patients - A Monocentric Study</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02522338</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT00922857</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Measurement of Glomerular Filtration Rate (GFR) in HIV Patients: Single-center Study Comparing the Accuracy of Estimators of GFR Versus Iohexol Plasma Clearance</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HIVOL</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Influence of Muscular Atrophy on Biological and Functional Benefit of Respiratory Rehabilitation in Patients With Chronic Respiratory Failure</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>INSPIRE</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1731,32 +1911,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>NCT01732978</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Are Parents Privileged Listeners Their Baby ?</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>BABIES_CRY</t>
         </is>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1768,28 +1953,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02522819</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02526966</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Feasibility Evaluation of Continuous Positive Airway Pressure (CPAP) in the Treatment of Obstructive Sleep Apnea Synchrone in the Acute Phase of Stroke</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="b">
-        <v>0</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Multicenter Study Evaluating the Performance of the Assay of Anti-hinge Region Antibodies in the Diagnosis of Progressive Forms of IgA Nephropathy</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NIGA-RA</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1801,28 +1995,33 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>NCT02547246</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Transcranial Magnetic Stimulation, Embodied Cognition and Bulimic Craving</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1834,32 +2033,33 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT00674531</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT01694914</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Detection of Enterovirus RNA by RT-PCR in Atheromatous Lesions</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ATH-ENTE</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
+          <t>Comparative Study of Two Corneal Graft Storage Media: New Animal Compound Free Medium Versus Reference Medium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1871,32 +2071,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT02526966</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02528591</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Multicenter Study Evaluating the Performance of the Assay of Anti-hinge Region Antibodies in the Diagnosis of Progressive Forms of IgA Nephropathy</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NIGA-RA</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Prospective Single-center Study Evaluating the Central Blood Pressure in Renal Transplantation</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PACT</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1908,28 +2113,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT01694914</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02522819</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Comparative Study of Two Corneal Graft Storage Media: New Animal Compound Free Medium Versus Reference Medium</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Feasibility Evaluation of Continuous Positive Airway Pressure (CPAP) in the Treatment of Obstructive Sleep Apnea Synchrone in the Acute Phase of Stroke</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1941,32 +2151,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02528591</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT00674531</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Prospective Single-center Study Evaluating the Central Blood Pressure in Renal Transplantation</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>PACT</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+          <t>Detection of Enterovirus RNA by RT-PCR in Atheromatous Lesions</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ATH-ENTE</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1978,32 +2193,33 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT01982214</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT03280810</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Effects of Whole Body Vibration (WBV) on Musculoskeletal System of Aged Women</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VIBROS</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
+          <t>Effects of a Psycho-corporal Training on Postural and Cognitive Dual-task Performances in Patients With Schizophrenia</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2013,357 +2229,419 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>NCT01116570</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Exercise and Myopathies. Physical Training Introduction in Lifestyle of Facioscapulohumeral Dystrophy Patients: Functional, Tissue and Quality of Life Benefits.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FSHD1</t>
+        </is>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02524210</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Effect of Inhibitors of the Proton Pump on Intestinal Transporters and Their Impact on the Pharmacokinetics of Dabigatran - Mechanistic and Clinical Approach -BIPP Study</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>BIPP</t>
+        </is>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02374281</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Autonomic Nervous System Reactivity of the Newborn After a Nociceptive Stress: Interest of Sucrose and Non-nutritive Sucking : A Controlled Randomized Single-center Study.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>BBSUCROSE</t>
+        </is>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT02425839</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Assessment of Correlation Between Changes of Shear Wave Elastography and Surface Electromyogram of the Masseter, in Rest and Maximal Voluntary Contraction</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>EVEREST</t>
+        </is>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT02528578</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Modulation of Painful Perception</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MODOU</t>
+        </is>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT03267979</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Assessing Pain in the Postoperative Period by Automatically Measuring the Variation Coefficient of Pupillary Diameter: PREVANS Study</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PREVANS</t>
+        </is>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT01982214</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Effects of Whole Body Vibration (WBV) on Musculoskeletal System of Aged Women</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>VIBROS</t>
+        </is>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>2013-000313-20</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Evaluation of the biological response to clopidogrel in patients with  ischemic stroke: role of platelet alpha2-adrenergic receptors 
  Evaluation de la réponse biologique au clopidogrel chez des patients en prévention secondaire d'accident ischémique cérébral : rôle des récepteurs alpha2-adrénergiques plaquettaires</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>AAPIX</t>
         </is>
       </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>NCT02425839</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT02257164</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Assessment of Correlation Between Changes of Shear Wave Elastography and Surface Electromyogram of the Masseter, in Rest and Maximal Voluntary Contraction</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>EVEREST</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Anesthesic Techniques for Surgery of the Anterior Cruciate Ligament of the Knee in Ambulatory Surgery. Randomized Pilot Monocentric Trial</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CLICA</t>
+        </is>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>2013-005043-86</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Reactivity of the autonomic nervous system after a nociceptive stress in the newborn: Interest of sucrose and non-nutritive sucking. 
  Réactivité du système nerveux autonome après un stress nociceptif chez le nouveau-né : Intérêt du sucrose et de la succion non nutritive.</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>BB SUCROSE</t>
         </is>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>NCT03267979</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Assessing Pain in the Postoperative Period by Automatically Measuring the Variation Coefficient of Pupillary Diameter: PREVANS Study</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>PREVANS</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>NCT03280810</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Effects of a Psycho-corporal Training on Postural and Cognitive Dual-task Performances in Patients With Schizophrenia</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>🟧</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>NCT02552524</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Study of the Effect of an Active rTMS Session in Pathological Gamblers: Impact on Craving and Severity of These Behaviors</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>NCT02528578</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Modulation of Painful Perception</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>MODOU</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>NCT02431819</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Single Center Prospective Study Evaluating the Safety of Progressive Compressive Stockings for the Treatment of Venous Insufficiency in Patients With Peripheral Arterial Disease</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>NCT01116570</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Exercise and Myopathies. Physical Training Introduction in Lifestyle of Facioscapulohumeral Dystrophy Patients: Functional, Tissue and Quality of Life Benefits.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>FSHD1</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>NCT02257164</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Anesthesic Techniques for Surgery of the Anterior Cruciate Ligament of the Knee in Ambulatory Surgery. Randomized Pilot Monocentric Trial</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>CLICA</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2375,144 +2653,152 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT02374281</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02431819</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Autonomic Nervous System Reactivity of the Newborn After a Nociceptive Stress: Interest of Sucrose and Non-nutritive Sucking : A Controlled Randomized Single-center Study.</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BBSUCROSE</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
+          <t>Single Center Prospective Study Evaluating the Safety of Progressive Compressive Stockings for the Treatment of Venous Insufficiency in Patients With Peripheral Arterial Disease</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT02524210</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT02552524</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Effect of Inhibitors of the Proton Pump on Intestinal Transporters and Their Impact on the Pharmacokinetics of Dabigatran - Mechanistic and Clinical Approach -BIPP Study</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>BIPP</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
+          <t>Study of the Effect of an Active rTMS Session in Pathological Gamblers: Impact on Craving and Severity of These Behaviors</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02668224</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT02355314</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Chronic Effects of Tendon Vibrations on the Neuromechanical Muscular Properties : Pilot Study, Interventional, Prospective, Longitudinal.</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NEUROVIB</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Doppler-based Renal Resistive Index in Assessing Renal Dysfunction Reversibility in ICU Patients</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>R2D2</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT02657512</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02549274</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Effect of Activated Charcoal on Rivaroxaban Pharmacokinetics in Healthy Subjects : RICHAR Study</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RICHAR</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
+          <t>Effectiveness of Active Home Exercises for Patients With Chronic Neck Pain: a Prospective Comparative Randomized Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2523,29 +2809,34 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02524301</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT02544516</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Evaluation of Brain Opioid Receptor Activity in Anorexia Nervosa : a PET [11C]Diprenorphine Study</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Study on the Links Between Perception and Action in Schizophrenia, "Upside Down, Give me the Handle"</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2556,103 +2847,122 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02524223</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02668224</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Prevalence of HPV Transmission During Medically Assisted Procreation Procedures</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>AMPAMAVIR</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Chronic Effects of Tendon Vibrations on the Neuromechanical Muscular Properties : Pilot Study, Interventional, Prospective, Longitudinal.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NEUROVIB</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT02355314</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT02524223</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Doppler-based Renal Resistive Index in Assessing Renal Dysfunction Reversibility in ICU Patients</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>R2D2</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Prevalence of HPV Transmission During Medically Assisted Procreation Procedures</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>AMPAMAVIR</t>
+        </is>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT02544516</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT02657512</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Study on the Links Between Perception and Action in Schizophrenia, "Upside Down, Give me the Handle"</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="b">
-        <v>0</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Effect of Activated Charcoal on Rivaroxaban Pharmacokinetics in Healthy Subjects : RICHAR Study</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>RICHAR</t>
+        </is>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2663,28 +2973,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02538796</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT02386787</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>The Embodied Cognition: Exploratory Study of Automatic and Controlled Processes in Anorexia Nervosa. A Monocentric Study</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="b">
-        <v>0</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Ultrasound Assessment of Gastric Content for Semi Emergency Surgery</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ECHO-GAST</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2696,34 +3015,39 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>NCT02279108</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Comparative, Prospective, Randomized Study Assessing The Interest of Indocyanine Green Fluorescence Imaging With Radioisotope Method For Sentinel Lymph Node Biopsy in Patients With Breast Cancer</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>FLUOTECH</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2733,34 +3057,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>NCT02571088</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Evaluation of a Training Program for Homozygous Sickle Cell Disease Patients: Benefits on Physical Ability and Skeletal Muscle. An Interventional Pilot, Multicentric, Prospective, Longitudinal Study</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>EXDRE</t>
         </is>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
       </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2770,33 +3099,34 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT02386787</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT02524301</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Ultrasound Assessment of Gastric Content for Semi Emergency Surgery</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ECHO-GAST</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of Brain Opioid Receptor Activity in Anorexia Nervosa : a PET [11C]Diprenorphine Study</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2807,28 +3137,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>NCT02524041</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Association Between Serum Periostin Levels and Cortical Porosity in Patients With Secondary Hyperparathyroidism</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2840,36 +3175,41 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>NCT02252497</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>2013-000791-15</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Tranexamic Acid in Total Hip Arthroplasty: Single Preoperative Administration vs Perioperative Administration. A Randomized Control Trial.</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>PORTO</t>
         </is>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2881,28 +3221,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT02549274</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT02670993</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Effectiveness of Active Home Exercises for Patients With Chronic Neck Pain: a Prospective Comparative Randomized Clinical Trial</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="b">
-        <v>0</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Support by Singing Sessions on Physical and Moral Pain : Assessment of Its Effectiveness in Alzheimer's Disease. Multicenter Study LACME</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>LACME</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2914,32 +3263,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT02670993</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT02538796</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Support by Singing Sessions on Physical and Moral Pain : Assessment of Its Effectiveness in Alzheimer's Disease. Multicenter Study LACME</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>LACME</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
+          <t>The Embodied Cognition: Exploratory Study of Automatic and Controlled Processes in Anorexia Nervosa. A Monocentric Study</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2951,103 +3301,118 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT02595112</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT02260414</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Study of Staphylococcus Aureus Colonization of the Posterior Nasal Cavity in Patients Undergoing Otorhinolaryngologic Surgery. A Monocentric Study</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SREENSTAPH2</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Effects of Injection Tinzaparin Prophylactic Dose (4,500 IU Anti-Xa) on Thrombin Generation in Patients With Multiple Myeloma, Lymphoma Patients and Patients Hospitalized for an Acute Medical Condition.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>METRO B</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT02960932</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT02112695</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Reproducibility Inter-session of the Measurement Elastography of the Passive Stiffness of Medial Beams of Gastrocnemius Muscle of the Hemiplegic Cerebral Child.</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ELASTOREPRO</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
+          <t>Opioid System Cerebral Activity in Endurance Sportswomen - Addiction or Denutrition ? [11C]Diprenorphine PET Study</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT02112695</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT02960932</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Opioid System Cerebral Activity in Endurance Sportswomen - Addiction or Denutrition ? [11C]Diprenorphine PET Study</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="b">
-        <v>0</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Reproducibility Inter-session of the Measurement Elastography of the Passive Stiffness of Medial Beams of Gastrocnemius Muscle of the Hemiplegic Cerebral Child.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ELASTOREPRO</t>
+        </is>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3058,32 +3423,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02526927</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT02562495</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Monocentric Study Evaluating Bone Microarchitecture by High Resolution Quantitative Computerized Tomography (HR-pQCT) in Young Adults and Adolescents Who Developed Anorexia Nervosa (AN) in Peri or Prepubertal Period.</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AMOS</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>Interest of the Ultrasound to Evaluate the Quadriceps Muscle Wasting in Critical Ill Patients.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ECHOSCAN</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3095,32 +3465,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT02502474</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02526927</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Study of the Colonic Carriage of Staphylococcus Aureus in a Prospective Cohort of Patients Undergoing Endoscopic Screening for Digestive Cancer in the University Hospital of Saint-Etienne.</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ColoStaph</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Monocentric Study Evaluating Bone Microarchitecture by High Resolution Quantitative Computerized Tomography (HR-pQCT) in Young Adults and Adolescents Who Developed Anorexia Nervosa (AN) in Peri or Prepubertal Period.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>AMOS</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3132,28 +3507,33 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>NCT02895438</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Does Non Coeliac Gluten Sensitivity (NCGS) Exist in Children? A Double-Blind Randomized Placebo-Controlled Trial</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3165,70 +3545,76 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT02595125</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT02595112</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Comparative Study, Prospective, Randomized , Assessing the Reduction of Pain Felt During Installation Intra- Uterine Device by Direct Technique. A Monocentric Study</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DIRECTE</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>Study of Staphylococcus Aureus Colonization of the Posterior Nasal Cavity in Patients Undergoing Otorhinolaryngologic Surgery. A Monocentric Study</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>SREENSTAPH2</t>
+        </is>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT02463890</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT02531061</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Effect of Exercise Training on Obstructive Sleep Apnea Syndrome Severity</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>EXESAS</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
+          <t>Impact of the Persistence of Inflammation at Doppler Ultrasound Level on the Structural Evolution of Erosion in Rheumatoid Arthritis Treated With Biotherapy</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3239,70 +3625,80 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT02260414</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT02595125</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Effects of Injection Tinzaparin Prophylactic Dose (4,500 IU Anti-Xa) on Thrombin Generation in Patients With Multiple Myeloma, Lymphoma Patients and Patients Hospitalized for an Acute Medical Condition.</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>METRO B</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Comparative Study, Prospective, Randomized , Assessing the Reduction of Pain Felt During Installation Intra- Uterine Device by Direct Technique. A Monocentric Study</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>DIRECTE</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT02562495</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT02463890</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Interest of the Ultrasound to Evaluate the Quadriceps Muscle Wasting in Critical Ill Patients.</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ECHOSCAN</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Effect of Exercise Training on Obstructive Sleep Apnea Syndrome Severity</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>EXESAS</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3313,28 +3709,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT02531061</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT02502474</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Impact of the Persistence of Inflammation at Doppler Ultrasound Level on the Structural Evolution of Erosion in Rheumatoid Arthritis Treated With Biotherapy</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="b">
-        <v>0</v>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Study of the Colonic Carriage of Staphylococcus Aureus in a Prospective Cohort of Patients Undergoing Endoscopic Screening for Digestive Cancer in the University Hospital of Saint-Etienne.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ColoStaph</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3346,33 +3751,38 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT03145454</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03307434</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Objective Markers of Pain Perception in Pediatric Emergency</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TAMALOU</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>PREVATHLE: To Evaluate the Effectiveness of an Injury Prevention Program in Athletics</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>PREVATHLE</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3383,28 +3793,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT03190486</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT02386969</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Perception of Baby's Painful Cry: Investigation in fMRI to Neuronal Activity Related to Empathy in Adults</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Long-term Efficacy of Repetitive Transcranial Magnetic Stimulation on the Primary Motor Cortex (M1) in Central Neuropathic Pain</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3416,32 +3831,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT02475486</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT03690804</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Role of the Sympathetic Nervous System (ANS) Dysregulation in the Persistence of Fatigue in Rheumatoid Arthritis Patients Treated With Anti-TNF (Tumor Necrosis Factor) - a Monocentric Cross-sectional Study</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ANSRA</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Assessment of Autonomic Co-regulation Between Newborn and Parent During Kangaroo Care Sessions in Neonatal Intensive Care Units</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Co-PAP</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3453,29 +3873,34 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT03324048</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT03714269</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>A Single Mindfulness Meditation Session in Preoperative Anxiety : Effects on the Autonomous Nervous System</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Acute Effects of a Passive Stretching Session on the Mechanical Properties of Medial Gastrocnemius Muscle in Children With Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3486,28 +3911,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT03249857</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT03145454</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Study of Sensorimotor Compatibility Effects in Bipolar Affective Disorder.</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="b">
-        <v>0</v>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Objective Markers of Pain Perception in Pediatric Emergency</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>TAMALOU</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3519,32 +3953,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT02596984</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT02667678</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Evaluation of the Pharmacokinetics of Caspofungin in ICU Patients</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CaspoKin</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>5 Years Follow-up Evaluation of Deterioration Kidney Biomarkers of HIV Patients : HIVOL 2 Study.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>HIVOL2</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3556,33 +3995,38 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT03307434</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT03079232</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>PREVATHLE: To Evaluate the Effectiveness of an Injury Prevention Program in Athletics</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>PREVATHLE</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>GALAXY</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3593,28 +4037,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT02386969</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT02596984</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Long-term Efficacy of Repetitive Transcranial Magnetic Stimulation on the Primary Motor Cortex (M1) in Central Neuropathic Pain</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="b">
-        <v>0</v>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Evaluation of the Pharmacokinetics of Caspofungin in ICU Patients</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CaspoKin</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3626,32 +4079,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>NCT02920723</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Follow-up of the Patients Included in the EXESAS Study : Analysis of the Profit of the Physical Activity for the Control Group and of the Preservation of a Regular Physical Activity for the Group Initially Trained</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>FOLLOW_EXESAS</t>
         </is>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3663,32 +4121,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT02667678</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT02475486</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>5 Years Follow-up Evaluation of Deterioration Kidney Biomarkers of HIV Patients : HIVOL 2 Study.</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>HIVOL2</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Role of the Sympathetic Nervous System (ANS) Dysregulation in the Persistence of Fatigue in Rheumatoid Arthritis Patients Treated With Anti-TNF (Tumor Necrosis Factor) - a Monocentric Cross-sectional Study</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ANSRA</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3700,32 +4163,33 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT03079232</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT03190486</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>GALAXY</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
+          <t>Perception of Baby's Painful Cry: Investigation in fMRI to Neuronal Activity Related to Empathy in Adults</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3737,29 +4201,34 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT03714269</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT03324048</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Acute Effects of a Passive Stretching Session on the Mechanical Properties of Medial Gastrocnemius Muscle in Children With Cerebral Palsy</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>A Single Mindfulness Meditation Session in Preoperative Anxiety : Effects on the Autonomous Nervous System</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3770,28 +4239,33 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>NCT02559999</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Objective Markers of Pain Perception in Humans: a Study in Healthy Subjects</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3803,70 +4277,76 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT03690804</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT03249857</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Assessment of Autonomic Co-regulation Between Newborn and Parent During Kangaroo Care Sessions in Neonatal Intensive Care Units</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Co-PAP</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
+          <t>Study of Sensorimotor Compatibility Effects in Bipolar Affective Disorder.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT03586505</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT02522806</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Tolerance to Light for Patients Suffering From Keratitis</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>EBLOUI</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+          <t>Endometrial Local Injury Before First IVF : Evaluation of Pregnancy Rate</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>BEONE</t>
+        </is>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3877,32 +4357,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCT03526211</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NCT02655172</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Study of Feasibility and Safety of Functional Electrical Stimulation (FES) Cycling in Intensive Care Unit Patients</t>
-        </is>
-      </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>FES Cycling</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+          <t>Study on the Links Between Action and Perception in Schizophrenia, " Have a Good Grasp of the World "</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>GRASP</t>
+        </is>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3914,107 +4399,122 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT02834260</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT03586505</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Immunosuppression During Penetrating Keratoplasty, Using a Subconjunctival Implant Releasing Dexamethasone: Tolerance and Safety Pilot Study</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>IDEXACOR</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>Tolerance to Light for Patients Suffering From Keratitis</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>EBLOUI</t>
+        </is>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
       </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT02668237</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT04025138</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Impact on Anti-infectious Treatments of the Early Molecular Detection Technique Coupled With Urinary Test of Infectious Agents Responsible of Community-acquired Pneumonia of Children at Pediatric Emergencies</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>OptiPAC</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
+          <t>Fatigability Compared Men and Women Induced According to the Distance Traveled on an Ultra-marathon in the Mountains</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>UTMB_2019</t>
+        </is>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCT04025138</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NCT02506504</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Fatigability Compared Men and Women Induced According to the Distance Traveled on an Ultra-marathon in the Mountains</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>UTMB_2019</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
+          <t>Prevention of Post-exercise Muscle Fatigue Using a Non Invasive Ventilation and Effect on Exercise Training in Severe Patients With COPD. QUADRIVEND Study</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>QUADRIVEND</t>
+        </is>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4025,32 +4525,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>NCT03549546</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Expression of the Inhibitory Receptors on Lymphocytes T Cells After Lung Cancer Surgery.</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>POIR</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4062,70 +4567,80 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NCT02655172</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NCT03526211</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Study on the Links Between Action and Perception in Schizophrenia, " Have a Good Grasp of the World "</t>
-        </is>
-      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>GRASP</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
+          <t>Study of Feasibility and Safety of Functional Electrical Stimulation (FES) Cycling in Intensive Care Unit Patients</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>FES Cycling</t>
+        </is>
       </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NCT02506504</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NCT02834260</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Prevention of Post-exercise Muscle Fatigue Using a Non Invasive Ventilation and Effect on Exercise Training in Severe Patients With COPD. QUADRIVEND Study</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>QUADRIVEND</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
+          <t>Immunosuppression During Penetrating Keratoplasty, Using a Subconjunctival Implant Releasing Dexamethasone: Tolerance and Safety Pilot Study</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>IDEXACOR</t>
+        </is>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4136,32 +4651,37 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCT02522806</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NCT02668237</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Endometrial Local Injury Before First IVF : Evaluation of Pregnancy Rate</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>BEONE</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
+          <t>Impact on Anti-infectious Treatments of the Early Molecular Detection Technique Coupled With Urinary Test of Infectious Agents Responsible of Community-acquired Pneumonia of Children at Pediatric Emergencies</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>OptiPAC</t>
+        </is>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4173,28 +4693,37 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NCT03342339</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NCT02386774</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Influence of Emotions on Decision-making in Parkinson's Disease</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="b">
-        <v>0</v>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Innovative Imaging of the Conjunctiva, Cornea, and Ocular Adnexa : Study of a Handheld in Vivo Confocal Microscope and of a Fluorescent in Vivo Confocal Microscope</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>INNOV-EYE</t>
+        </is>
       </c>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4206,252 +4735,287 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NCT02386774</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
+          <t>2009-018189-36</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Innovative Imaging of the Conjunctiva, Cornea, and Ocular Adnexa : Study of a Handheld in Vivo Confocal Microscope and of a Fluorescent in Vivo Confocal Microscope</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>INNOV-EYE</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
+          <t>Prévention chez le receveur avec néphropathie à IgA primaire (NIGA) de la Récidive Après Transplantation rénale: ATG-F versus Basiliximab, comme traitements immunosuppresseurs d’induction.   Etude PIRAT: A vs B</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>PIRAT</t>
+        </is>
       </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NCT02591030</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NCT03342339</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Randomised Phase II/III Study, Assessing the Safety and Efficacy of Modified Folfirinox Versus Gemcis in Locally Advanced, Unresectable and/or Metastatic Bile Duct Tumours</t>
-        </is>
-      </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>AMEBICA</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
+          <t>Influence of Emotions on Decision-making in Parkinson's Disease</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>NCT02591030</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Randomised Phase II/III Study, Assessing the Safety and Efficacy of Modified Folfirinox Versus Gemcis in Locally Advanced, Unresectable and/or Metastatic Bile Duct Tumours</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>AMEBICA</t>
+        </is>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2017-004348-39</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Association between methotrexate erythrocyte polyglutamate concentration and clinical response in rheumatoid arthritis patients treated with subcutaneous injectable methotrexate</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>POLYGLU</t>
+        </is>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NCT02672566</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Low-molecular-weight Heparin in Constituted Vascular Intrauterine Growth Restriction. Randomized Multicenter Trial</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>GROWTH</t>
+        </is>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NCT04093037</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Analysis of the Diagnostic Performance of LacryDiag, a New "All-in-one" Non-contact Analyzer of the Ocular Surface in the Dry Eye. Study LACRYMOSA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>LACRYMOSA</t>
+        </is>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>2018-001505-90</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>Decolonization of patients carrying S. aureus before cardiac surgery: study of the risk factors associated with failure 
  Décolonisation des patients porteurs de Staphylococcus aureus en chirurgie cardiaque : étude des facteurs de risque d’échec de décolonisation</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>STAdécol 
  STAdécol</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2009-018189-36</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Prévention chez le receveur avec néphropathie à IgA primaire (NIGA) de la Récidive Après Transplantation rénale: ATG-F versus Basiliximab, comme traitements immunosuppresseurs d’induction.   Etude PIRAT: A vs B</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>PIRAT</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>NCT03172390</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>In Vivo Evaluation of Growth and Risk of Rupture of Dilated Ascending Aorta Using 4D Cardiac Magnetic Resonance</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>NCT02672566</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Low-molecular-weight Heparin in Constituted Vascular Intrauterine Growth Restriction. Randomized Multicenter Trial</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>GROWTH</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>NCT03643328</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Ex Vivo Evaluation of Immunity Activation Face to Staphylococcus Aureus Antigens and Adjuvants of a Vaccine Candidate in Cells From Haemodialysis Patients</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>ANTISTAPH</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4463,32 +5027,37 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NCT03445871</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NCT03126045</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Association Between Methotrexate Erythrocyte Polyglutamate Concentration and Clinical Response in Rheumatoid Arthritis Patients Treated With Subcutaneous Injectable Methotrexate</t>
-        </is>
-      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>POLYGLU</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
+          <t>SPPLAASH Study : a Randomized Study Aiming at Evaluating the Incidence of Post Lumbar Puncture Headache (PLPH) With the Use of Atraumatic Needles in Hematology</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>SPPLAASH</t>
+        </is>
       </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
       <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4498,34 +5067,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2017-004348-39</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
+          <t>NCT03643328</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Association between methotrexate erythrocyte polyglutamate concentration and clinical response in rheumatoid arthritis patients treated with subcutaneous injectable methotrexate</t>
-        </is>
-      </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>POLYGLU</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
+          <t>Ex Vivo Evaluation of Immunity Activation Face to Staphylococcus Aureus Antigens and Adjuvants of a Vaccine Candidate in Cells From Haemodialysis Patients</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>ANTISTAPH</t>
+        </is>
       </c>
       <c r="H114" t="b">
         <v>0</v>
       </c>
       <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4537,32 +5111,37 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NCT03126045</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NCT03445871</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>SPPLAASH Study : a Randomized Study Aiming at Evaluating the Incidence of Post Lumbar Puncture Headache (PLPH) With the Use of Atraumatic Needles in Hematology</t>
-        </is>
-      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>SPPLAASH</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
+          <t>Association Between Methotrexate Erythrocyte Polyglutamate Concentration and Clinical Response in Rheumatoid Arthritis Patients Treated With Subcutaneous Injectable Methotrexate</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>POLYGLU</t>
+        </is>
       </c>
       <c r="H115" t="b">
         <v>0</v>
       </c>
       <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4574,32 +5153,33 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NCT04093037</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NCT03172390</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Analysis of the Diagnostic Performance of LacryDiag, a New "All-in-one" Non-contact Analyzer of the Ocular Surface in the Dry Eye. Study LACRYMOSA</t>
-        </is>
-      </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>LACRYMOSA</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
+          <t>In Vivo Evaluation of Growth and Risk of Rupture of Dilated Ascending Aorta Using 4D Cardiac Magnetic Resonance</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4611,34 +5191,39 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>NCT02929004</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>Chronic Effects of Local Vibration on Neuromuscular Reconditioning After Anterior Cruciate Ligament Reconstruction</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>VIB_LCA</t>
         </is>
       </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
       <c r="H117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4648,32 +5233,37 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NCT03182166</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NCT02853045</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Pharmacokinetic and Pharmacodynamic Study of Golimumab in Ulcerative Colitis (UC) Patients With Loss of Response (LOR) Followed by Dose Optimization</t>
-        </is>
-      </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>GOLILOR</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
+          <t>Comparison of Blood Pressure Control Achieved in Antihypertensive or Generic Drugs in Moderate to Severe Hypertensive Patients</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>PRINGEN</t>
+        </is>
       </c>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4685,32 +5275,37 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NCT02494648</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NCT02665845</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Effects of Inspiratory Muscles Strengthening Among Coronary Patients on the Sleep Apnea Obstructive Syndrome (SAOS)</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>RICAOS</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
+          <t>Combination Corticosteroids+5-aminosalicylic Acids Compared to Corticosteroids Alone in the Treatment of Moderate-severe Active Ulcerative Colitis: A Protocol of a Multi-center Prospective Randomized Investigator Blinded Trial.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>COMBOMESA</t>
+        </is>
       </c>
       <c r="H119" t="b">
         <v>0</v>
       </c>
       <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4722,32 +5317,37 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NCT02853045</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NCT03731247</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Comparison of Blood Pressure Control Achieved in Antihypertensive or Generic Drugs in Moderate to Severe Hypertensive Patients</t>
-        </is>
-      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>PRINGEN</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
+          <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>OCTAV</t>
+        </is>
       </c>
       <c r="H120" t="b">
         <v>0</v>
       </c>
       <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4759,32 +5359,37 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NCT03731247</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NCT03736733</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>In Vivo Imaging Innovation : Optical Coherence Microscopy in Dermato-oncology</t>
-        </is>
-      </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>OCTAV</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
+          <t>Relevance of an Adapted and Supervised Physical Activity Program in Fibromyalgia Patients. The FIMOUV 1 Study. Interventional, Controlled, Randomized, Open Study of an Original Outpatient Management.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>FIMOUV 1</t>
+        </is>
       </c>
       <c r="H121" t="b">
         <v>0</v>
       </c>
       <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4796,181 +5401,206 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NCT03866785</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NCT03317613</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Physical Activity Experiment on Male Prostate Cancer Patients : Feasibility Multicenter Study of an Innovative Follow-up by Peers</t>
-        </is>
-      </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ACTI_PAIR</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
+          <t>Clinical Trial Assessing the Efficacy of Capsaicin Patch (Qutenza®) in Cancer Patients With Neuropathic Pain</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>CAPSONCO</t>
+        </is>
       </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
       <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NCT04859023</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NCT04511858</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Comparison of Strategies Based on RT-PCR or Antigenic Test for the Screening of SARS-CoV-2 Infection in General Population Using Self-samples (COVID-19).</t>
-        </is>
-      </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>AutoCoV</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
+          <t>Difference in Central Fatigue During Two Ultra-endurance Practices: Running vs. Cycling</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>FAT-CENTR</t>
+        </is>
       </c>
       <c r="H123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NCT02668250</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NCT03866785</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>The OPTI-AGED Study : Influence of a Multi-parametric Optimization Strategy for General Anesthesia on Postoperative Morbidity and Mortality in Elderly Patients. A Randomized, Multicentre, Prospective Controlled Study</t>
-        </is>
-      </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>OPTI-AGED</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
+          <t>Physical Activity Experiment on Male Prostate Cancer Patients : Feasibility Multicenter Study of an Innovative Follow-up by Peers</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>ACTI_PAIR</t>
+        </is>
       </c>
       <c r="H124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NCT02675179</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NCT04859023</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>EOS® Versus Spiral CT Technique for Achieving a Pelvimetry in Suites of Obstructed Labor: Comparative Single-center Prospective Study - PELVIC-EOS.</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>PELVI-EOS</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
+          <t>Comparison of Strategies Based on RT-PCR or Antigenic Test for the Screening of SARS-CoV-2 Infection in General Population Using Self-samples (COVID-19).</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>AutoCoV</t>
+        </is>
       </c>
       <c r="H125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NCT02665845</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NCT02668250</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Combination Corticosteroids+5-aminosalicylic Acids Compared to Corticosteroids Alone in the Treatment of Moderate-severe Active Ulcerative Colitis: A Protocol of a Multi-center Prospective Randomized Investigator Blinded Trial.</t>
-        </is>
-      </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>COMBOMESA</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>0</v>
+          <t>The OPTI-AGED Study : Influence of a Multi-parametric Optimization Strategy for General Anesthesia on Postoperative Morbidity and Mortality in Elderly Patients. A Randomized, Multicentre, Prospective Controlled Study</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>OPTI-AGED</t>
+        </is>
       </c>
       <c r="H126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4981,32 +5611,37 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NCT04511858</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NCT01841242</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Difference in Central Fatigue During Two Ultra-endurance Practices: Running vs. Cycling</t>
-        </is>
-      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>FAT-CENTR</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
+          <t>Comparison of Alcoholic Chlorhexidine 2% Versus Alcoholic Povidone Iodine for Infections Prevention With Cardiac Resynchronization Therapy Device Implantation</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>CHLOVIS</t>
+        </is>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5018,32 +5653,37 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NCT02657304</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NCT02675179</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Effect of Early Education and Information of Sleep Apnea on the Observance of CPAP Treatment</t>
-        </is>
-      </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>CoachSAS</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>0</v>
+          <t>EOS® Versus Spiral CT Technique for Achieving a Pelvimetry in Suites of Obstructed Labor: Comparative Single-center Prospective Study - PELVIC-EOS.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>PELVI-EOS</t>
+        </is>
       </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
       <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5055,32 +5695,37 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NCT01841242</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NCT02657304</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Comparison of Alcoholic Chlorhexidine 2% Versus Alcoholic Povidone Iodine for Infections Prevention With Cardiac Resynchronization Therapy Device Implantation</t>
-        </is>
-      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>CHLOVIS</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>0</v>
+          <t>Effect of Early Education and Information of Sleep Apnea on the Observance of CPAP Treatment</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>CoachSAS</t>
+        </is>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5092,32 +5737,37 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NCT03736733</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NCT03182166</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Relevance of an Adapted and Supervised Physical Activity Program in Fibromyalgia Patients. The FIMOUV 1 Study. Interventional, Controlled, Randomized, Open Study of an Original Outpatient Management.</t>
-        </is>
-      </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>FIMOUV 1</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>0</v>
+          <t>Pharmacokinetic and Pharmacodynamic Study of Golimumab in Ulcerative Colitis (UC) Patients With Loss of Response (LOR) Followed by Dose Optimization</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>GOLILOR</t>
+        </is>
       </c>
       <c r="H130" t="b">
         <v>0</v>
       </c>
       <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5129,32 +5779,37 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NCT03317613</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NCT02494648</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Clinical Trial Assessing the Efficacy of Capsaicin Patch (Qutenza®) in Cancer Patients With Neuropathic Pain</t>
-        </is>
-      </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>CAPSONCO</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>0</v>
+          <t>Effects of Inspiratory Muscles Strengthening Among Coronary Patients on the Sleep Apnea Obstructive Syndrome (SAOS)</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>RICAOS</t>
+        </is>
       </c>
       <c r="H131" t="b">
         <v>0</v>
       </c>
       <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5166,32 +5821,37 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>NCT02666339</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>Mélisses Garden: Effect of the Mediation by Care-garden on Anxious State in Adult Patients Hospitalized in Psychiatry (Prospective, Monocentric, Controlled, Randomized, Open in Two Parallel Groups Study)</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>JDM</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
       <c r="H132" t="b">
         <v>0</v>
       </c>
       <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5201,30 +5861,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2018-001051-12</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
+          <t>NCT04767776</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>VEDO - PREDIRESPUC project - Value of pharmacokinetic assays (Vedolizumab and anti-vedolizumab antibody) in the prediction of induction and maintenance therapeutic response in Ulcerative Colitis</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="b">
-        <v>0</v>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Non Inferiority Study of a Reduced Dose of Activated Charcoal on Rivaroxaban Pharmacokinetics.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>RICHAR2</t>
+        </is>
       </c>
       <c r="H133" t="b">
         <v>0</v>
       </c>
       <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5236,32 +5905,37 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NCT04767776</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NCT04857710</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Non Inferiority Study of a Reduced Dose of Activated Charcoal on Rivaroxaban Pharmacokinetics.</t>
-        </is>
-      </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>RICHAR2</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
+          <t>Chronic Effects of Wide-pulse Neuromuscular Electrostimulation on Neuromuscular and Functional Properties in Healthy Subjects</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>ELECTRO-WP</t>
+        </is>
       </c>
       <c r="H134" t="b">
         <v>0</v>
       </c>
       <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5273,32 +5947,37 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NCT04034719</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NCT03801122</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Benefit of Scarf Support on Skin-to-skin Time and Portage in Neonatology and at Home(PAPSE)</t>
-        </is>
-      </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>PAPSE</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
+          <t>Study of Thromboelastography During Tranexamic Acid Treatment in Preventing Bleeding in Patients With Haematological Malignancies Presenting Severe Thrombocytopenia (TTRAP-bleeding)</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>TTRAP-Bleeding</t>
+        </is>
       </c>
       <c r="H135" t="b">
         <v>0</v>
       </c>
       <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5310,28 +5989,33 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NCT02359513</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
+          <t>2018-001051-12</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Evaluation of the Efficacy of Serotoninergic Antidepressants in Bulimia Nervosa, According to Brain Serotonin Profile Determined by Positron Emission Tomography With [18F] MPPF - a Multicenter Study</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>VEDO - PREDIRESPUC project - Value of pharmacokinetic assays (Vedolizumab and anti-vedolizumab antibody) in the prediction of induction and maintenance therapeutic response in Ulcerative Colitis</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="b">
         <v>0</v>
       </c>
       <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5343,32 +6027,37 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NCT04102410</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NCT04998266</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Assessing Force-velocity Profile: an Innovative Approach to Optimize Cardiac Rehabilitation in Coronary Patients</t>
-        </is>
-      </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>CITIUS</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
+          <t>Evaluation of Physical Capacities Within the Company and Effect of a Personalized Versus Traditional Training Program on the Quality of Life of Sedentary Employees: Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>MOVING_LAB</t>
+        </is>
       </c>
       <c r="H137" t="b">
         <v>0</v>
       </c>
       <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5380,32 +6069,37 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NCT04998266</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NCT04102410</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Evaluation of Physical Capacities Within the Company and Effect of a Personalized Versus Traditional Training Program on the Quality of Life of Sedentary Employees: Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>MOVING_LAB</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>0</v>
+          <t>Assessing Force-velocity Profile: an Innovative Approach to Optimize Cardiac Rehabilitation in Coronary Patients</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>CITIUS</t>
+        </is>
       </c>
       <c r="H138" t="b">
         <v>0</v>
       </c>
       <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5417,32 +6111,33 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NCT04857710</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NCT02359513</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Chronic Effects of Wide-pulse Neuromuscular Electrostimulation on Neuromuscular and Functional Properties in Healthy Subjects</t>
-        </is>
-      </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ELECTRO-WP</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of the Efficacy of Serotoninergic Antidepressants in Bulimia Nervosa, According to Brain Serotonin Profile Determined by Positron Emission Tomography With [18F] MPPF - a Multicenter Study</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="b">
         <v>0</v>
       </c>
       <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5454,70 +6149,80 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>NCT04895501</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>Effects of Shoe Longitudinal Bending Stiffness on Changes in Energy Cost of Running During a 21 km Run</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>FAT-FLEX</t>
         </is>
       </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NCT03240341</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NCT04034719</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Influence of PARAmedical Interventions on Patient ACTivation in the Cancer Care Pathway</t>
-        </is>
-      </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>PARACT</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
+          <t>Benefit of Scarf Support on Skin-to-skin Time and Portage in Neonatology and at Home(PAPSE)</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>PAPSE</t>
+        </is>
       </c>
       <c r="H141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J141" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5528,70 +6233,80 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>NCT04117308</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>Analysis of the Use of the Fetal Movement Counting for Prolonged Pregnancy: Prospective Randomized Study.</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>COMPTAMAF</t>
         </is>
       </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
       <c r="H142" t="b">
         <v>0</v>
       </c>
       <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NCT03801122</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NCT03240341</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Study of Thromboelastography During Tranexamic Acid Treatment in Preventing Bleeding in Patients With Haematological Malignancies Presenting Severe Thrombocytopenia (TTRAP-bleeding)</t>
-        </is>
-      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>TTRAP-Bleeding</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>0</v>
+          <t>Influence of PARAmedical Interventions on Patient ACTivation in the Cancer Care Pathway</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>PARACT</t>
+        </is>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J143" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5602,32 +6317,37 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NCT05155826</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NCT05013021</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>The Effect of Virtual Reality for Pain Management During Intracervical Balloon Placement for Labor Induction: a Randomized Controlled Trial (VIRTUALMAG)</t>
-        </is>
-      </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>VIRTUALMAG</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
+          <t>Sprint Interval Training (SIT) on the Endurance, Strength and Velocity Capacities of Healthy Sedentary Subjects</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>BénéfiSIT</t>
+        </is>
       </c>
       <c r="H144" t="b">
         <v>0</v>
       </c>
       <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5639,32 +6359,37 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NCT05170178</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NCT05717543</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Cracking the Code of Crying Babies: How Familiarity Changes the Interpretation of Cries</t>
-        </is>
-      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>BEBEDOL</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
+          <t>Imaging of Corneal and Crystalline by Near Infrared Retro-illumination</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>RETRO-ILLUMI</t>
+        </is>
       </c>
       <c r="H145" t="b">
         <v>0</v>
       </c>
       <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5674,221 +6399,251 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>NCT06110637</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Effects of Running Shoe Sole Hardness on Vibration and Neuromuscular Fatigue During a Half-marathon Run on a Treadmill</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>FAT-VIB</t>
+        </is>
+      </c>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>NCT05155826</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>The Effect of Virtual Reality for Pain Management During Intracervical Balloon Placement for Labor Induction: a Randomized Controlled Trial (VIRTUALMAG)</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>VIRTUALMAG</t>
+        </is>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>NCT05047718</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Factors Influencing the COVID-19 Vaccine Immune Response (Reactogenicity and Immunogenicity) According to Age and Presence or Not of a Past History of COVID-19</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>COVIMMUNAGE</t>
+        </is>
+      </c>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NCT04737018</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Impact of a Focal Muscle Vibration Protocol in Front of the the Anterior Tibial Muscle in the Subacute Post-stroke Period on Motor Recovery in Hemiplegic Patients.</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>VIBRATAC</t>
+        </is>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>NCT04469348</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Inflammation, Intracellular Invasion and Colonization of the Nasal Mucosa by Staphylococcus Aureus</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>I3COSa</t>
+        </is>
+      </c>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>2018-003233-14</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>Evaluation of the neonatal autonomic stress during intubations under Propofol in a population of premature infants under 33 w’GA 
  Evaluation autonomique du stress lors de l’intubation en séquence rapide sous Propofol d’une population de prématurés de moins de 33 SA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>PROPOSURF 
  PROPOSURF</t>
         </is>
       </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146" t="b">
-        <v>0</v>
-      </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>NCT04025411</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Effectiveness of Computerized Device New of Visual Motor Simulation Versus Mirror Therapy in Hemiplegic Patients. SI-VIM Study</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>SI-VIM</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147" t="b">
-        <v>0</v>
-      </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>NCT02484820</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>PREMAPESSAIRE: Prevention of Preterm Birth in Singletons Using Pessary After Resolutive Threatened Preterm Labor: a Prospective, Randomized Monocentric Clinical Trial</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>PREMAPESSAIRE</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148" t="b">
-        <v>0</v>
-      </c>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>NCT06110637</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Effects of Running Shoe Sole Hardness on Vibration and Neuromuscular Fatigue During a Half-marathon Run on a Treadmill</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>FAT-VIB</t>
-        </is>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>NCT05047718</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Factors Influencing the COVID-19 Vaccine Immune Response (Reactogenicity and Immunogenicity) According to Age and Presence or Not of a Past History of COVID-19</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>COVIMMUNAGE</t>
-        </is>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>NCT04737018</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Impact of a Focal Muscle Vibration Protocol in Front of the the Anterior Tibial Muscle in the Subacute Post-stroke Period on Motor Recovery in Hemiplegic Patients.</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>VIBRATAC</t>
-        </is>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
       <c r="H151" t="b">
         <v>0</v>
       </c>
       <c r="I151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5900,32 +6655,37 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NCT04469348</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NCT05170178</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Inflammation, Intracellular Invasion and Colonization of the Nasal Mucosa by Staphylococcus Aureus</t>
-        </is>
-      </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>I3COSa</t>
-        </is>
-      </c>
-      <c r="G152" t="b">
-        <v>0</v>
+          <t>Cracking the Code of Crying Babies: How Familiarity Changes the Interpretation of Cries</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>BEBEDOL</t>
+        </is>
       </c>
       <c r="H152" t="b">
         <v>0</v>
       </c>
       <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5937,32 +6697,37 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NCT05717543</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NCT02484820</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Imaging of Corneal and Crystalline by Near Infrared Retro-illumination</t>
-        </is>
-      </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>RETRO-ILLUMI</t>
-        </is>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
+          <t>PREMAPESSAIRE: Prevention of Preterm Birth in Singletons Using Pessary After Resolutive Threatened Preterm Labor: a Prospective, Randomized Monocentric Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>PREMAPESSAIRE</t>
+        </is>
       </c>
       <c r="H153" t="b">
         <v>0</v>
       </c>
       <c r="I153" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5974,32 +6739,37 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NCT05013021</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NCT04025411</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Sprint Interval Training (SIT) on the Endurance, Strength and Velocity Capacities of Healthy Sedentary Subjects</t>
-        </is>
-      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>BénéfiSIT</t>
-        </is>
-      </c>
-      <c r="G154" t="b">
-        <v>0</v>
+          <t>Effectiveness of Computerized Device New of Visual Motor Simulation Versus Mirror Therapy in Hemiplegic Patients. SI-VIM Study</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>SI-VIM</t>
+        </is>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
       <c r="I154" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6011,32 +6781,37 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NCT05314543</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>NCT06469359</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Description and Determinants of the Power-speed-endurance Profile (PVE) in Cycling and Rowing to Optimize the Performance of the French Athletes at the Paris Olympics 2024</t>
-        </is>
-      </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>THPCA2024</t>
-        </is>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
+          <t>Development of a Methodology to Analyze Nasal Tissue-resident Memory Immune Cells and Peripheral Memory Cells Able to Migrate to Airway Tissues (MUCOVAC)</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>MUCOVAC</t>
+        </is>
       </c>
       <c r="H155" t="b">
         <v>0</v>
       </c>
       <c r="I155" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6048,32 +6823,37 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NCT06469359</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>NCT03984682</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Development of a Methodology to Analyze Nasal Tissue-resident Memory Immune Cells and Peripheral Memory Cells Able to Migrate to Airway Tissues (MUCOVAC)</t>
-        </is>
-      </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>MUCOVAC</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>0</v>
+          <t>Impact of Joint Crisis Plan on the Duration of Isolation Measures in Psychiatry.</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>PLANCO-ISO</t>
+        </is>
       </c>
       <c r="H156" t="b">
         <v>0</v>
       </c>
       <c r="I156" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6085,32 +6865,37 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>NCT05367791</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>Improving Postural Control Through Innovative Stimulation of the Proprioceptive System</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>IMPULSES</t>
         </is>
       </c>
-      <c r="G157" t="b">
-        <v>0</v>
-      </c>
       <c r="H157" t="b">
         <v>0</v>
       </c>
       <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6122,32 +6907,37 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NCT05385653</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>NCT03753776</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Pre-therapeutic Validation of the VR-based Exposure Scenario for CBT "ReVBEB" for the Induction of Food Craving in Patients With Bulimia and Binge Eating Disorder</t>
-        </is>
-      </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>RevBED</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>0</v>
+          <t>Phase III Trial Evaluating Radium Bromatum Homeopathic Treatment Efficacy on Radiodermatitis Prevention and Treatment for Breast Cancer Women</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>HOMEORAD</t>
+        </is>
       </c>
       <c r="H158" t="b">
         <v>0</v>
       </c>
       <c r="I158" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6159,32 +6949,37 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NCT03753776</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>NCT05314543</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Phase III Trial Evaluating Radium Bromatum Homeopathic Treatment Efficacy on Radiodermatitis Prevention and Treatment for Breast Cancer Women</t>
-        </is>
-      </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>HOMEORAD</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>0</v>
+          <t>Description and Determinants of the Power-speed-endurance Profile (PVE) in Cycling and Rowing to Optimize the Performance of the French Athletes at the Paris Olympics 2024</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>THPCA2024</t>
+        </is>
       </c>
       <c r="H159" t="b">
         <v>0</v>
       </c>
       <c r="I159" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6196,32 +6991,37 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NCT02579954</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>NCT05385653</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Cardiac Function and Exercise Capacity in Pulmonary Arterial Hypertension</t>
-        </is>
-      </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>FONCE-HTAP</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>0</v>
+          <t>Pre-therapeutic Validation of the VR-based Exposure Scenario for CBT "ReVBEB" for the Induction of Food Craving in Patients With Bulimia and Binge Eating Disorder</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>RevBED</t>
+        </is>
       </c>
       <c r="H160" t="b">
         <v>0</v>
       </c>
       <c r="I160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6233,32 +7033,37 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NCT03984682</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>NCT03445845</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Impact of Joint Crisis Plan on the Duration of Isolation Measures in Psychiatry.</t>
-        </is>
-      </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>PLANCO-ISO</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>0</v>
+          <t>Rotation or Change of Biotherapy After TNF Blocker Treatment Failure for Axial Spondyloarthritis</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>ROC-SPA</t>
+        </is>
       </c>
       <c r="H161" t="b">
         <v>0</v>
       </c>
       <c r="I161" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6270,32 +7075,37 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NCT03445845</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NCT02579954</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Rotation or Change of Biotherapy After TNF Blocker Treatment Failure for Axial Spondyloarthritis</t>
-        </is>
-      </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ROC-SPA</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>0</v>
+          <t>Cardiac Function and Exercise Capacity in Pulmonary Arterial Hypertension</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>FONCE-HTAP</t>
+        </is>
       </c>
       <c r="H162" t="b">
         <v>0</v>
       </c>
       <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6305,30 +7115,31 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2008-008378-29</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>A survey on the success of inhibitor elimination using individualized concentrate selection and controlled immune tolerance induction</t>
-        </is>
-      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2006-005294-22</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>OBSITI</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>0</v>
-      </c>
+          <t>Performance de l’équation MDRD corrigée par la cimétidine chez le patient transplanté rénal</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
       <c r="H163" t="b">
         <v>0</v>
       </c>
       <c r="I163" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6338,26 +7149,31 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2009-014690-41</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Comparison of the protective effect of two cardioplegic solutions Custodiol versus St Thomas on the cardiac metabolism assessed by microdialysis in coronary surgery</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="b">
-        <v>0</v>
-      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2009-017768-18</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Analgésie par bloc continu du plan transverse de l’abdomen en chirurgie d’exérèse hépatique : efficacité et influence sur la réhabilitation précoce.</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
       <c r="H164" t="b">
         <v>0</v>
       </c>
       <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6367,291 +7183,340 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2008-006256-22</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Evaluation by high resolution micro computerized tomography of bone microarchitecture changes in patients with rheumatoid arthritis under anti-TNF therapy.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2016-000424-25</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Low-molecular-weight heparin in constituted vascular intrauterine growth restriction. Randomized multicenter trial</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>GROWTH 
+ GROWTH</t>
+        </is>
+      </c>
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2009-014690-41</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Comparison of the protective effect of two cardioplegic solutions Custodiol versus St Thomas on the cardiac metabolism assessed by microdialysis in coronary surgery</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
         <is>
           <t>2016-004381-25</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
         <is>
           <t>Study of the impact of a targeted decolonization of S. aureus in persistent carriers on the occurrence of S. aureus infections in hemodialysis patients 
  Evaluation de l’impact d’une stratégie de décolonisation ciblée des porteurs persistants de Staphylococcus aureus sur la survenue d’infections à S. aureus en hémodialyse</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>CIBERSTAPH 
  CIBERSTAPH</t>
         </is>
       </c>
-      <c r="G165" t="b">
-        <v>0</v>
-      </c>
-      <c r="H165" t="b">
-        <v>0</v>
-      </c>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2010-021022-35</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Effet of curarization under general anaesthesia on eye movements in non-strabismus children</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>STRABO</t>
-        </is>
-      </c>
-      <c r="G166" t="b">
-        <v>0</v>
-      </c>
-      <c r="H166" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr">
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
         <is>
           <t>2015-001807-29</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
         <is>
           <t>Pharmacokinetic study of rituximab induction regimen in ANCA-associated vasculitis : a predictive factor of clinical outcome? (MONITUX) - A multicentric study 
  MONITUX : Evaluation de l’intérêt du MONitoring des taux de riTUXimab et de la recherche d’anticorps anti-rituximab comme facteur prédictif de rechute dans les vascularites à ANCA  (Etude pilote, multicentrique)</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>MONITUX</t>
         </is>
       </c>
-      <c r="G167" t="b">
-        <v>0</v>
-      </c>
-      <c r="H167" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr">
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2008-008378-29</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>A survey on the success of inhibitor elimination using individualized concentrate selection and controlled immune tolerance induction</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>OBSITI</t>
+        </is>
+      </c>
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2010-021022-35</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Effet of curarization under general anaesthesia on eye movements in non-strabismus children</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>STRABO</t>
+        </is>
+      </c>
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2021-003547-24</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Factors influencing the COVID-19 vaccine immune response (reactogenicity and immunogenicity) according to age and presence or not of a past history of COVID-19. COVIMMUNAGE study 
+ Etude des facteurs influençant la réponse immunitaire vaccinale COVID-19 (réactogénicité et immunogénicité) en fonction de l’âge et de la présence ou non d’un antécédent de COVID-19. Etude COVIMMUNAGE</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>COVIMMUNAGE 
+ COVIMMUNAGE</t>
+        </is>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
         <is>
           <t>2020-001188-96</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
         <is>
           <t>Chemoprophylaxis of SARS-CoV-2 infection (COVID-19) in exposed healthcare workers: a randomized double-blind placebo-controlled clinical trial 
  Essai de chimioprophylaxie de l’infection à SARS-CoV-2 (COVID-19) chez les soignants exposés : essai multicentrique randomisé contrôle versus placebo en double aveugle.</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>COVIDAXIS 
  COVIDAXIS</t>
         </is>
       </c>
-      <c r="G168" t="b">
-        <v>0</v>
-      </c>
-      <c r="H168" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2021-003547-24</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Factors influencing the COVID-19 vaccine immune response (reactogenicity and immunogenicity) according to age and presence or not of a past history of COVID-19. COVIMMUNAGE study 
- Etude des facteurs influençant la réponse immunitaire vaccinale COVID-19 (réactogénicité et immunogénicité) en fonction de l’âge et de la présence ou non d’un antécédent de COVID-19. Etude COVIMMUNAGE</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>COVIMMUNAGE 
- COVIMMUNAGE</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>0</v>
-      </c>
-      <c r="H169" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2009-017768-18</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Analgésie par bloc continu du plan transverse de l’abdomen en chirurgie d’exérèse hépatique : efficacité et influence sur la réhabilitation précoce.</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="b">
-        <v>0</v>
-      </c>
-      <c r="H170" t="b">
-        <v>0</v>
-      </c>
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>2008-006256-22</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Evaluation by high resolution micro computerized tomography of bone microarchitecture changes in patients with rheumatoid arthritis under anti-TNF therapy.</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="b">
-        <v>0</v>
-      </c>
-      <c r="H171" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>2006-005294-22</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Performance de l’équation MDRD corrigée par la cimétidine chez le patient transplanté rénal</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="b">
-        <v>0</v>
-      </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>2016-000424-25</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Low-molecular-weight heparin in constituted vascular intrauterine growth restriction. Randomized multicenter trial</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>GROWTH 
- GROWTH</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>0</v>
-      </c>
       <c r="H173" t="b">
         <v>0</v>
       </c>
       <c r="I173" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
+++ b/publipostage/04pn6vp43/liste_essais_cliniques_identifies_04pn6vp43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -640,6 +660,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +750,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -758,6 +793,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +840,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -838,6 +883,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +930,7 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +973,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -964,6 +1020,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1067,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1048,6 +1114,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,6 +1157,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1124,6 +1200,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1166,6 +1247,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1208,6 +1294,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1250,6 +1341,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1292,6 +1388,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1330,6 +1431,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1372,6 +1478,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1410,6 +1521,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1452,6 +1568,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1494,6 +1615,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1536,6 +1662,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1578,6 +1709,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1616,6 +1752,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1658,6 +1799,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1700,6 +1846,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1742,6 +1893,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1784,6 +1940,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1822,6 +1983,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1860,6 +2026,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1902,6 +2073,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1944,6 +2120,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1986,6 +2167,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2024,6 +2210,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2062,6 +2253,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2104,6 +2300,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2142,6 +2343,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2184,6 +2390,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2222,6 +2433,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2264,6 +2480,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2306,6 +2527,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2348,6 +2574,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2390,6 +2621,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2432,6 +2668,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2474,6 +2715,11 @@
       <c r="J50" t="b">
         <v>1</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2516,6 +2762,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2559,6 +2810,7 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2601,6 +2853,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2644,6 +2901,7 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2682,6 +2940,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2720,6 +2983,11 @@
       <c r="J56" t="b">
         <v>1</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2762,6 +3030,11 @@
       <c r="J57" t="b">
         <v>1</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2800,6 +3073,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2838,6 +3116,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2880,6 +3163,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2922,6 +3210,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2964,6 +3257,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3006,6 +3304,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3048,6 +3351,11 @@
       <c r="J64" t="b">
         <v>1</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3090,6 +3398,11 @@
       <c r="J65" t="b">
         <v>1</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3128,6 +3441,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3166,6 +3484,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3212,6 +3535,11 @@
       <c r="J68" t="b">
         <v>1</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3254,6 +3582,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3292,6 +3625,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3334,6 +3672,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3372,6 +3715,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3414,6 +3762,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3456,6 +3809,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3498,6 +3856,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3536,6 +3899,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3578,6 +3946,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3616,6 +3989,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3658,6 +4036,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3700,6 +4083,11 @@
       <c r="J80" t="b">
         <v>1</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3742,6 +4130,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3784,6 +4177,11 @@
       <c r="J82" t="b">
         <v>1</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3822,6 +4220,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3864,6 +4267,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3902,6 +4310,11 @@
       <c r="J85" t="b">
         <v>1</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3944,6 +4357,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3986,6 +4404,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4028,6 +4451,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4070,6 +4498,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4112,6 +4545,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4154,6 +4592,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4192,6 +4635,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4230,6 +4678,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4268,6 +4721,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4306,6 +4764,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4348,6 +4811,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4390,6 +4858,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4432,6 +4905,11 @@
       <c r="J98" t="b">
         <v>1</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4474,6 +4952,11 @@
       <c r="J99" t="b">
         <v>1</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4516,6 +4999,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4558,6 +5046,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4600,6 +5093,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4642,6 +5140,11 @@
       <c r="J103" t="b">
         <v>1</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4684,6 +5187,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4726,6 +5234,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4768,6 +5281,7 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4806,6 +5320,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4848,6 +5367,11 @@
       <c r="J108" t="b">
         <v>1</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4890,6 +5414,7 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4932,6 +5457,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4974,6 +5504,11 @@
       <c r="J111" t="b">
         <v>0</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5018,6 +5553,7 @@
       <c r="J112" t="b">
         <v>0</v>
       </c>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5060,6 +5596,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5102,6 +5643,11 @@
       <c r="J114" t="b">
         <v>0</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5144,6 +5690,11 @@
       <c r="J115" t="b">
         <v>0</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5182,6 +5733,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5224,6 +5780,11 @@
       <c r="J117" t="b">
         <v>1</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5266,6 +5827,11 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5308,6 +5874,11 @@
       <c r="J119" t="b">
         <v>0</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5350,6 +5921,11 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5392,6 +5968,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5434,6 +6015,11 @@
       <c r="J122" t="b">
         <v>0</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5476,6 +6062,11 @@
       <c r="J123" t="b">
         <v>0</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5518,6 +6109,11 @@
       <c r="J124" t="b">
         <v>0</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5560,6 +6156,11 @@
       <c r="J125" t="b">
         <v>1</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5602,6 +6203,11 @@
       <c r="J126" t="b">
         <v>1</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5644,6 +6250,11 @@
       <c r="J127" t="b">
         <v>0</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5686,6 +6297,11 @@
       <c r="J128" t="b">
         <v>0</v>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5728,6 +6344,11 @@
       <c r="J129" t="b">
         <v>0</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5770,6 +6391,11 @@
       <c r="J130" t="b">
         <v>0</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5812,6 +6438,11 @@
       <c r="J131" t="b">
         <v>0</v>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5854,6 +6485,11 @@
       <c r="J132" t="b">
         <v>0</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5896,6 +6532,11 @@
       <c r="J133" t="b">
         <v>0</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5938,6 +6579,11 @@
       <c r="J134" t="b">
         <v>0</v>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5980,6 +6626,11 @@
       <c r="J135" t="b">
         <v>0</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6018,6 +6669,7 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6060,6 +6712,11 @@
       <c r="J137" t="b">
         <v>0</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6102,6 +6759,11 @@
       <c r="J138" t="b">
         <v>0</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6140,6 +6802,11 @@
       <c r="J139" t="b">
         <v>0</v>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6182,6 +6849,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6224,6 +6896,11 @@
       <c r="J141" t="b">
         <v>0</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6266,6 +6943,11 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6308,6 +6990,11 @@
       <c r="J143" t="b">
         <v>1</v>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6350,6 +7037,11 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6392,6 +7084,11 @@
       <c r="J145" t="b">
         <v>0</v>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6434,6 +7131,11 @@
       <c r="J146" t="b">
         <v>0</v>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6476,6 +7178,11 @@
       <c r="J147" t="b">
         <v>0</v>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6518,6 +7225,11 @@
       <c r="J148" t="b">
         <v>0</v>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6560,6 +7272,11 @@
       <c r="J149" t="b">
         <v>0</v>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6602,6 +7319,11 @@
       <c r="J150" t="b">
         <v>0</v>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6646,6 +7368,7 @@
       <c r="J151" t="b">
         <v>0</v>
       </c>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6688,6 +7411,11 @@
       <c r="J152" t="b">
         <v>0</v>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6730,6 +7458,11 @@
       <c r="J153" t="b">
         <v>0</v>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6772,6 +7505,11 @@
       <c r="J154" t="b">
         <v>0</v>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6814,6 +7552,11 @@
       <c r="J155" t="b">
         <v>0</v>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6856,6 +7599,11 @@
       <c r="J156" t="b">
         <v>0</v>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6898,6 +7646,11 @@
       <c r="J157" t="b">
         <v>0</v>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6940,6 +7693,11 @@
       <c r="J158" t="b">
         <v>0</v>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6982,6 +7740,11 @@
       <c r="J159" t="b">
         <v>0</v>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7024,6 +7787,11 @@
       <c r="J160" t="b">
         <v>0</v>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7066,6 +7834,11 @@
       <c r="J161" t="b">
         <v>0</v>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7108,6 +7881,11 @@
       <c r="J162" t="b">
         <v>0</v>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7142,6 +7920,7 @@
       <c r="J163" t="b">
         <v>0</v>
       </c>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7176,6 +7955,7 @@
       <c r="J164" t="b">
         <v>0</v>
       </c>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7210,6 +7990,7 @@
       <c r="J165" t="b">
         <v>0</v>
       </c>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7249,6 +8030,7 @@
       <c r="J166" t="b">
         <v>0</v>
       </c>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7283,6 +8065,7 @@
       <c r="J167" t="b">
         <v>0</v>
       </c>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7323,6 +8106,7 @@
       <c r="J168" t="b">
         <v>0</v>
       </c>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7363,6 +8147,7 @@
       <c r="J169" t="b">
         <v>0</v>
       </c>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7401,6 +8186,7 @@
       <c r="J170" t="b">
         <v>0</v>
       </c>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7439,6 +8225,7 @@
       <c r="J171" t="b">
         <v>0</v>
       </c>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7479,6 +8266,7 @@
       <c r="J172" t="b">
         <v>0</v>
       </c>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7519,6 +8307,7 @@
       <c r="J173" t="b">
         <v>0</v>
       </c>
+      <c r="K173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
